--- a/Base/Backlog_2.xlsx
+++ b/Base/Backlog_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3294074F-D022-40BA-921D-A05306A5D28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB6A568-CCF4-435E-8B92-1F4EB068AD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -1544,7 +1544,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="M18" sqref="M17:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1620,7 @@
         <v>45583</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>22</v>
@@ -1652,7 +1652,7 @@
         <v>45583</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>22</v>
@@ -1684,7 +1684,7 @@
         <v>45583</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>22</v>
@@ -1716,7 +1716,7 @@
         <v>45583</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>22</v>
@@ -1748,7 +1748,7 @@
         <v>45583</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>22</v>
@@ -1780,7 +1780,7 @@
         <v>45583</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>22</v>
@@ -1812,7 +1812,7 @@
         <v>45583</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>22</v>
@@ -1844,7 +1844,7 @@
         <v>45583</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>22</v>
@@ -1876,7 +1876,7 @@
         <v>45583</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>22</v>
@@ -1908,7 +1908,7 @@
         <v>45583</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>22</v>
@@ -1940,7 +1940,7 @@
         <v>45583</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>22</v>
@@ -1972,7 +1972,7 @@
         <v>45583</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>22</v>
@@ -2004,7 +2004,7 @@
         <v>45583</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>22</v>
@@ -2036,7 +2036,7 @@
         <v>45583</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>22</v>
@@ -2068,7 +2068,7 @@
         <v>45583</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>22</v>
@@ -2101,7 +2101,7 @@
         <v>45583</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>22</v>
@@ -2133,7 +2133,7 @@
         <v>45583</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>22</v>
@@ -2165,7 +2165,7 @@
         <v>45583</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>22</v>
@@ -2197,7 +2197,7 @@
         <v>45583</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>22</v>
@@ -2229,7 +2229,7 @@
         <v>45583</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>22</v>
@@ -2261,7 +2261,7 @@
         <v>45583</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>22</v>

--- a/Base/Backlog_2.xlsx
+++ b/Base/Backlog_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB6A568-CCF4-435E-8B92-1F4EB068AD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760AF9E8-289E-4228-86A6-D441B3C940D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="29">
   <si>
     <t>Backlog</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Semana</t>
-  </si>
-  <si>
-    <t>Semana 02</t>
   </si>
   <si>
     <t>Inicio_Semana</t>
@@ -587,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,10 +612,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -633,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -641,10 +638,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2</v>
       </c>
       <c r="D2" s="5">
         <v>45579</v>
@@ -662,10 +659,10 @@
         <v>45583</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -673,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
       </c>
       <c r="D3" s="5">
         <v>45579</v>
@@ -694,10 +691,10 @@
         <v>45583</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -705,10 +702,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2</v>
       </c>
       <c r="D4" s="5">
         <v>45579</v>
@@ -726,10 +723,10 @@
         <v>45583</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -737,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2</v>
       </c>
       <c r="D5" s="5">
         <v>45579</v>
@@ -758,10 +755,10 @@
         <v>45583</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -769,10 +766,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
       </c>
       <c r="D6" s="5">
         <v>45579</v>
@@ -790,10 +787,10 @@
         <v>45583</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -801,10 +798,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
       </c>
       <c r="D7" s="5">
         <v>45579</v>
@@ -822,10 +819,10 @@
         <v>45583</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -833,10 +830,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2</v>
       </c>
       <c r="D8" s="5">
         <v>45579</v>
@@ -854,10 +851,10 @@
         <v>45583</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,10 +862,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2</v>
       </c>
       <c r="D9" s="5">
         <v>45579</v>
@@ -886,10 +883,10 @@
         <v>45583</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,10 +894,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2</v>
       </c>
       <c r="D10" s="5">
         <v>45579</v>
@@ -918,10 +915,10 @@
         <v>45583</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -929,10 +926,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2</v>
       </c>
       <c r="D11" s="5">
         <v>45579</v>
@@ -950,10 +947,10 @@
         <v>45583</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -961,10 +958,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
       </c>
       <c r="D12" s="5">
         <v>45579</v>
@@ -982,10 +979,10 @@
         <v>45583</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -993,10 +990,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2</v>
       </c>
       <c r="D13" s="5">
         <v>45579</v>
@@ -1014,10 +1011,10 @@
         <v>45583</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1025,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
       </c>
       <c r="D14" s="5">
         <v>45579</v>
@@ -1046,10 +1043,10 @@
         <v>45583</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1057,10 +1054,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
       </c>
       <c r="D15" s="9">
         <v>45579</v>
@@ -1078,10 +1075,10 @@
         <v>45583</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1089,10 +1086,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
       </c>
       <c r="D16" s="9">
         <v>45579</v>
@@ -1110,10 +1107,10 @@
         <v>45583</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1121,10 +1118,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
       </c>
       <c r="D17" s="9">
         <v>45579</v>
@@ -1142,10 +1139,10 @@
         <v>45583</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1153,10 +1150,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
       </c>
       <c r="D18" s="9">
         <v>45579</v>
@@ -1174,10 +1171,10 @@
         <v>45583</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1185,10 +1182,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
       </c>
       <c r="D19" s="9">
         <v>45579</v>
@@ -1206,10 +1203,10 @@
         <v>45583</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1217,10 +1214,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
       </c>
       <c r="D20" s="9">
         <v>45579</v>
@@ -1238,10 +1235,10 @@
         <v>45583</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1249,10 +1246,10 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
       </c>
       <c r="D21" s="9">
         <v>45579</v>
@@ -1270,10 +1267,10 @@
         <v>45583</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1281,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
       </c>
       <c r="D22" s="9">
         <v>45579</v>
@@ -1302,10 +1299,10 @@
         <v>45583</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1313,10 +1310,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2</v>
       </c>
       <c r="D23" s="9">
         <v>45579</v>
@@ -1334,10 +1331,10 @@
         <v>45583</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1345,10 +1342,10 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="15">
+        <v>2</v>
       </c>
       <c r="D24" s="9">
         <v>45579</v>
@@ -1366,10 +1363,10 @@
         <v>45583</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1377,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="15">
+        <v>2</v>
       </c>
       <c r="D25" s="5">
         <v>45579</v>
@@ -1398,10 +1395,10 @@
         <v>45583</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,10 +1406,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
       </c>
       <c r="D26" s="5">
         <v>45579</v>
@@ -1430,10 +1427,10 @@
         <v>45583</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,10 +1438,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="C27" s="15">
+        <v>2</v>
       </c>
       <c r="D27" s="5">
         <v>45579</v>
@@ -1462,10 +1459,10 @@
         <v>45583</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1473,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="15">
+        <v>2</v>
       </c>
       <c r="D28" s="5">
         <v>45579</v>
@@ -1494,10 +1491,10 @@
         <v>45583</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1505,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C29" s="15">
+        <v>2</v>
       </c>
       <c r="D29" s="5">
         <v>45579</v>
@@ -1526,10 +1523,10 @@
         <v>45583</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1543,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M17:M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,10 +1570,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>1</v>
@@ -1591,7 +1588,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1599,10 +1596,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2</v>
       </c>
       <c r="D2" s="17">
         <v>45579</v>
@@ -1620,10 +1617,10 @@
         <v>45583</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1631,10 +1628,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
       </c>
       <c r="D3" s="17">
         <v>45579</v>
@@ -1652,10 +1649,10 @@
         <v>45583</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1663,10 +1660,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2</v>
       </c>
       <c r="D4" s="17">
         <v>45579</v>
@@ -1684,10 +1681,10 @@
         <v>45583</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1695,10 +1692,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2</v>
       </c>
       <c r="D5" s="17">
         <v>45579</v>
@@ -1716,10 +1713,10 @@
         <v>45583</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1727,10 +1724,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
       </c>
       <c r="D6" s="17">
         <v>45579</v>
@@ -1748,10 +1745,10 @@
         <v>45583</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1759,10 +1756,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
       </c>
       <c r="D7" s="17">
         <v>45579</v>
@@ -1780,10 +1777,10 @@
         <v>45583</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1791,10 +1788,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2</v>
       </c>
       <c r="D8" s="17">
         <v>45579</v>
@@ -1812,10 +1809,10 @@
         <v>45583</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1823,10 +1820,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2</v>
       </c>
       <c r="D9" s="17">
         <v>45579</v>
@@ -1844,10 +1841,10 @@
         <v>45583</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1855,10 +1852,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2</v>
       </c>
       <c r="D10" s="17">
         <v>45579</v>
@@ -1876,10 +1873,10 @@
         <v>45583</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1887,10 +1884,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2</v>
       </c>
       <c r="D11" s="17">
         <v>45579</v>
@@ -1908,10 +1905,10 @@
         <v>45583</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1919,10 +1916,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
       </c>
       <c r="D12" s="17">
         <v>45579</v>
@@ -1940,10 +1937,10 @@
         <v>45583</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1951,10 +1948,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2</v>
       </c>
       <c r="D13" s="17">
         <v>45579</v>
@@ -1972,10 +1969,10 @@
         <v>45583</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1983,10 +1980,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
       </c>
       <c r="D14" s="17">
         <v>45579</v>
@@ -2004,10 +2001,10 @@
         <v>45583</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2015,10 +2012,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
       </c>
       <c r="D15" s="17">
         <v>45579</v>
@@ -2036,10 +2033,10 @@
         <v>45583</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2047,10 +2044,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
       </c>
       <c r="D16" s="17">
         <v>45579</v>
@@ -2068,10 +2065,10 @@
         <v>45583</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" s="19"/>
     </row>
@@ -2080,10 +2077,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
       </c>
       <c r="D17" s="17">
         <v>45579</v>
@@ -2101,10 +2098,10 @@
         <v>45583</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2112,10 +2109,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
       </c>
       <c r="D18" s="17">
         <v>45579</v>
@@ -2133,10 +2130,10 @@
         <v>45583</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2144,10 +2141,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
       </c>
       <c r="D19" s="17">
         <v>45579</v>
@@ -2165,10 +2162,10 @@
         <v>45583</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2176,10 +2173,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
       </c>
       <c r="D20" s="17">
         <v>45579</v>
@@ -2197,10 +2194,10 @@
         <v>45583</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2208,10 +2205,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
       </c>
       <c r="D21" s="17">
         <v>45579</v>
@@ -2229,10 +2226,10 @@
         <v>45583</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2240,10 +2237,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
       </c>
       <c r="D22" s="17">
         <v>45579</v>
@@ -2261,10 +2258,10 @@
         <v>45583</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
